--- a/保险数据字典.xlsx
+++ b/保险数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="17040" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="481">
   <si>
     <t>INT(10)</t>
   </si>
@@ -717,19 +717,945 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>承保公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保险人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurercompanyname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurercompanycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policyname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保险人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主被保险人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachedTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主被保险人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachedtoname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+  </si>
+  <si>
+    <t>accountname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurancename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policynumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险期间（起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险期间（止）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在保，停保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shistate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joblocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇员，子女，员工，夫妻，配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicantcompanyname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicantcompanycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团保方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人保单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurancegroupcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurancecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险别类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywxpolicynumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险保单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClaimArchive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案卷ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupinsurancepolicyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团保方案ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimarchivenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案卷号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimarchiveid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuredid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bardh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报案人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitaldate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dischargedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundpaid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashpaid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统筹金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：正常赔付；2：拒赔；3：部分拒赔；4：不受理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfpfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dereason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床位费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他方赔付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共保额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsbyyfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神病医药费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zfyyfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费医药费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzyyfremark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费医药费说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药费剔除金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyftcamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyfremark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药费剔除说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gkjjcfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高科技检查费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高科技检查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gkjjcjgpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常；1：异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zfjcfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zfjcfremark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费检查费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费检查费说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcftcamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcftcremark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查费剔除金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查费剔除说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-0：内诊；1-1：门诊；1-2门诊急诊；2：住院；4：意外医疗；5：女性生育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dereason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dereasonname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dereasoncode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClaimImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photourl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseasecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinyin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：否；1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitalname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitalcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinyin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>county</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuredid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富田日捆储运2016健康险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（团保）方案名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupinsurancepolicyname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团保方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicantCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicantcompanyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>insurercompanyid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承保公司ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>GroupInsurancePolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuranceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuredname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuredtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subbranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policystate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,51 +1663,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被保险人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insured</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurercompanyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurercompanycode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuredname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被保险人ID</t>
+    <t>参保人清单(个人保单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒赔金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyfpfje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药费赔付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcfpfje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查费赔付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwfpfje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床位费赔付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总赔付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurancetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -789,35 +1751,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主被保险人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachedTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主被保险人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachedtoname</t>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankprovince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -825,421 +1787,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bankname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-  </si>
-  <si>
-    <t>accountname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurancename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policynumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodbegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险期间（起）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险期间（止）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policystate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男，女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shistate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joblocal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicantCompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicantcompanyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicantcompanycode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团保方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInsurancePolicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人保单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人保单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insurancegroupname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insurancegroupcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurancecode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurancetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险别类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保公司ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicantcompanyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承保公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policynumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>premium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保费合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywxpolicynumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外险保单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClaimArchive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案卷ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupinsurancepolicyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团保方案ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acceptdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>claimarchivenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案卷号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>claimarchiveid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serialnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被保人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuredid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bardh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报案人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receipt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiptnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospitaldate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dischargedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出院日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundpaid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cashpaid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统筹金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
+    <t>insurancegroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentalillnessamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神类疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非空 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非空 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非空 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科自费项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康复治疗及物理治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentistryamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehabilitationamount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1247,23 +1867,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>claimtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diseaseid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赔付类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>INT(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1271,403 +1887,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>claimstatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赔付状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：正常赔付；2：拒赔；3：部分拒赔；4：不受理</t>
+    <t>ClaimSettlement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>diseasename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tfpfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dereason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床位费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他方赔付金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共保额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医药费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsbyyfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神病医药费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zfyyfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自费医药费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fzyyfremark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自费医药费说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医药费剔除金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyftcamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyfremark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医药费剔除说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gkjjcfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高科技检查费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高科技检查结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gkjjcjgpool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：正常；1：异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zfjcfamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zfjcfremark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自费检查费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自费检查费说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcftcamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcftcremark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查费剔除金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查费剔除说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dereason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dereasonname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dereasoncode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photourl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diseasecode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinyin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：否；1：是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospitalname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospitalcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>county</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富田日捆储运2016健康险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（团保）方案名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupinsurancepolicyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团保方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuranceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空，外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>险种组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurancegroupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在保，停保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇员，子女，员工，夫妻，配偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Claim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClaimImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinyin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-0：内诊；1-1：门诊；1-2门诊急诊；2：住院；4：意外医疗；5：女性生育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,8 +1930,16 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,6 +2022,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,16 +2333,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="43.75" customWidth="1"/>
@@ -2118,7 +2365,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2127,33 +2374,33 @@
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2169,10 +2416,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D6" s="4">
         <v>11</v>
@@ -2181,7 +2428,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2190,33 +2437,33 @@
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2232,10 +2479,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>258</v>
+        <v>423</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="D11" s="4">
         <v>21</v>
@@ -2244,7 +2491,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2253,13 +2500,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -2268,13 +2515,13 @@
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2283,212 +2530,212 @@
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>212</v>
+        <v>453</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>406</v>
+      <c r="A17" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>416</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>417</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>398</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2499,730 +2746,724 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1">
+      <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B32" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="4">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="7" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2"/>
+      <c r="F34" s="7" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1">
+      <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B37" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="4">
         <v>25</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>205</v>
+      <c r="A41" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>444</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>413</v>
+        <v>201</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>215</v>
+      <c r="A45" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>216</v>
+      <c r="A46" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>219</v>
+      <c r="A47" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="4">
-        <v>27</v>
-      </c>
-      <c r="E51" s="4"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>248</v>
+      <c r="A52" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>261</v>
+      <c r="A53" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>263</v>
+      <c r="A55" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>419</v>
+      </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D57" s="4">
-        <v>29</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>264</v>
-      </c>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>261</v>
+      <c r="A59" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E61" s="2"/>
+    <row r="61" spans="1:5" s="1" customFormat="1">
+      <c r="A61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" s="4">
+        <v>27</v>
+      </c>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" s="1" customFormat="1">
-      <c r="A64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" s="4">
-        <v>31</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="2"/>
+    <row r="67" spans="1:5" s="1" customFormat="1">
+      <c r="A67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D67" s="4">
+        <v>29</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>231</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1">
+      <c r="A74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D74" s="4">
+        <v>31</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" s="1" customFormat="1">
-      <c r="A76" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D76" s="4">
-        <v>25</v>
-      </c>
-      <c r="E76" s="4"/>
+      <c r="D76" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>191</v>
+        <v>402</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" s="1" customFormat="1">
-      <c r="A80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="4">
-        <v>41</v>
-      </c>
-      <c r="E80" s="4"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -3238,19 +3479,19 @@
         <v>43</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="D86" s="4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>0</v>
@@ -3259,357 +3500,339 @@
         <v>38</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E90" s="2"/>
+    <row r="90" spans="1:5" s="1" customFormat="1">
+      <c r="A90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="4">
+        <v>41</v>
+      </c>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D91" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" s="1" customFormat="1">
-      <c r="A93" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D93" s="4">
-        <v>43</v>
-      </c>
-      <c r="E93" s="4"/>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" s="1" customFormat="1">
+      <c r="A96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96" s="4">
+        <v>43</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="27">
-      <c r="A97" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>424</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E103" s="2"/>
+    <row r="103" spans="1:5" s="1" customFormat="1">
+      <c r="A103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" s="4">
+        <v>43</v>
+      </c>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D108" s="2" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>165</v>
@@ -3618,285 +3841,299 @@
         <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E115" s="2"/>
+    <row r="115" spans="1:5" s="1" customFormat="1">
+      <c r="A115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D115" s="4">
+        <v>43</v>
+      </c>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" s="1" customFormat="1">
-      <c r="A117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D117" s="4">
-        <v>51</v>
-      </c>
-      <c r="E117" s="4"/>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
-        <v>191</v>
+      <c r="A118" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="27">
       <c r="A120" s="2" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D121" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D123" s="2" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" s="1" customFormat="1">
-      <c r="A125" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D125" s="4">
-        <v>43</v>
-      </c>
-      <c r="E125" s="4"/>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D128" s="2" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>165</v>
@@ -3905,28 +4142,28 @@
         <v>34</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E134" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>165</v>
@@ -3935,739 +4172,725 @@
         <v>34</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" s="1" customFormat="1">
-      <c r="A137" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="4">
-        <v>51</v>
-      </c>
-      <c r="E137" s="4"/>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>191</v>
+        <v>351</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="D139" s="2" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>370</v>
+        <v>471</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="D140" s="2" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" s="1" customFormat="1">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" s="1" customFormat="1">
+      <c r="A143" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D142" s="4">
-        <v>49</v>
-      </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E143" s="2"/>
+      <c r="B143" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D143" s="4">
+        <v>51</v>
+      </c>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>318</v>
+        <v>189</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D145" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+      <c r="A146" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" s="1" customFormat="1">
-      <c r="A147" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D147" s="4">
-        <v>51</v>
-      </c>
-      <c r="E147" s="4"/>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E148" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E151" s="2"/>
+    <row r="151" spans="1:5" s="1" customFormat="1">
+      <c r="A151" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D151" s="4">
+        <v>43</v>
+      </c>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D152" s="2" t="s">
-        <v>392</v>
+        <v>313</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="2" t="s">
-        <v>394</v>
+      <c r="A153" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D153" s="2" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D154" s="2" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D155" s="2" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D156" s="2" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" s="1" customFormat="1">
-      <c r="A158" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D158" s="4">
-        <v>81</v>
-      </c>
-      <c r="E158" s="4"/>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>95</v>
+        <v>336</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E162" s="2"/>
+    <row r="162" spans="1:5" s="1" customFormat="1">
+      <c r="A162" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D162" s="4">
+        <v>51</v>
+      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>99</v>
+        <v>360</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E167" s="2"/>
+    <row r="167" spans="1:5" s="1" customFormat="1">
+      <c r="A167" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D167" s="4">
+        <v>49</v>
+      </c>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>362</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E172" s="2"/>
+    <row r="172" spans="1:5" s="1" customFormat="1">
+      <c r="A172" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D172" s="4">
+        <v>51</v>
+      </c>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" s="1" customFormat="1">
-      <c r="A176" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D176" s="4">
-        <v>81</v>
-      </c>
-      <c r="E176" s="4"/>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>106</v>
+        <v>381</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>383</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>16</v>
+        <v>386</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E183" s="2"/>
+    <row r="183" spans="1:5" s="1" customFormat="1">
+      <c r="A183" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D183" s="4">
+        <v>81</v>
+      </c>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -4690,889 +4913,1248 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C191" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D191" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C194" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D194" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E201" s="2"/>
+    <row r="201" spans="1:5" s="1" customFormat="1">
+      <c r="A201" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D201" s="4">
+        <v>81</v>
+      </c>
+      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" s="1" customFormat="1">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D210" s="4">
-        <v>85</v>
-      </c>
-      <c r="E210" s="4"/>
+      <c r="A210" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5" s="1" customFormat="1">
-      <c r="A215"/>
-      <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D216" s="4">
-        <v>83</v>
-      </c>
-      <c r="E216" s="4"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E217" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C219" s="2"/>
       <c r="D219" s="2" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5" s="1" customFormat="1">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D223" s="4">
-        <v>51</v>
-      </c>
-      <c r="E223" s="4"/>
+      <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D226" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D228" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="3" customFormat="1">
-      <c r="A230" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" s="1" customFormat="1">
-      <c r="A231"/>
-      <c r="B231"/>
-      <c r="C231"/>
-      <c r="D231"/>
-      <c r="E231"/>
-    </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D232" s="4">
-        <v>85</v>
-      </c>
-      <c r="E232" s="4"/>
+      <c r="A232" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="1" customFormat="1">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E235" s="2"/>
+      <c r="A235" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D235" s="4">
+        <v>85</v>
+      </c>
+      <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5" s="3" customFormat="1">
-      <c r="A237" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2" t="s">
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5" s="1" customFormat="1">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="4" t="s">
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" s="1" customFormat="1">
+      <c r="A240"/>
+      <c r="B240"/>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C239" s="4" t="s">
+      <c r="B241" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D241" s="4">
         <v>83</v>
       </c>
-      <c r="D239" s="4">
-        <v>51</v>
-      </c>
-      <c r="E239" s="4"/>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E241" s="2"/>
+      <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5" s="1" customFormat="1">
-      <c r="A243"/>
-      <c r="B243"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
+      <c r="D243" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D244" s="4">
-        <v>87</v>
-      </c>
-      <c r="E244" s="4"/>
+      <c r="A244" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C246" s="2"/>
       <c r="D246" s="2" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E247" s="2"/>
+    <row r="247" spans="1:5" s="1" customFormat="1">
+      <c r="A247"/>
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E248" s="2"/>
+      <c r="A248" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D248" s="4">
+        <v>51</v>
+      </c>
+      <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" s="3" customFormat="1">
+      <c r="A255" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="1" customFormat="1">
+      <c r="A256"/>
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D257" s="4">
+        <v>85</v>
+      </c>
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" s="3" customFormat="1">
+      <c r="A262" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" s="1" customFormat="1">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D264" s="4">
+        <v>51</v>
+      </c>
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5" s="1" customFormat="1">
+      <c r="A268"/>
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D269" s="4">
+        <v>87</v>
+      </c>
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="2" t="s">
+      <c r="B277" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D277" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" s="1" customFormat="1">
-      <c r="A253"/>
-      <c r="B253"/>
-      <c r="C253"/>
-      <c r="D253"/>
-      <c r="E253"/>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="4" t="s">
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" s="1" customFormat="1">
+      <c r="A278"/>
+      <c r="B278"/>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
